--- a/static/需求/功能清单.xlsx
+++ b/static/需求/功能清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="84">
   <si>
     <t>一级模块</t>
   </si>
@@ -70,72 +70,69 @@
     <t>查看过去12个月的质量走势</t>
   </si>
   <si>
+    <t>系统质量情况</t>
+  </si>
+  <si>
+    <t>质控看板</t>
+  </si>
+  <si>
+    <t>已完成的版本情况</t>
+  </si>
+  <si>
+    <t>查看部门已完成的所有常规版本信息列表</t>
+  </si>
+  <si>
+    <t>查看部门已完成的所有紧急版本信息列表</t>
+  </si>
+  <si>
+    <t>自定义搜索</t>
+  </si>
+  <si>
+    <t>跳转到版本具体信息页面</t>
+  </si>
+  <si>
+    <t>导出常规版本信息列表</t>
+  </si>
+  <si>
+    <t>导出紧急版本信息列表</t>
+  </si>
+  <si>
+    <t>验收中的版本情况</t>
+  </si>
+  <si>
+    <t>查看部门验收中的所有常规版本信息列表</t>
+  </si>
+  <si>
+    <t>跳转到版本具体信息页面进行编辑</t>
+  </si>
+  <si>
+    <t>测试经理、测试人员</t>
+  </si>
+  <si>
+    <t>局方人员</t>
+  </si>
+  <si>
+    <t>导出列表</t>
+  </si>
+  <si>
+    <t>删除版本具体信息</t>
+  </si>
+  <si>
+    <t>测试经理</t>
+  </si>
+  <si>
+    <t>月报质量数据</t>
+  </si>
+  <si>
+    <t>查看当前月报统计范围内的所有版本信息列表</t>
+  </si>
+  <si>
+    <t>生成月报</t>
+  </si>
+  <si>
     <t>开发中</t>
   </si>
   <si>
-    <t>遗留小BUG：月份显示顺序</t>
-  </si>
-  <si>
-    <t>系统质量情况</t>
-  </si>
-  <si>
-    <t>质控看板</t>
-  </si>
-  <si>
-    <t>已完成的版本情况</t>
-  </si>
-  <si>
-    <t>查看部门已完成的所有常规版本信息列表</t>
-  </si>
-  <si>
-    <t>查看部门已完成的所有紧急版本信息列表</t>
-  </si>
-  <si>
-    <t>自定义搜索</t>
-  </si>
-  <si>
-    <t>跳转到版本具体信息页面</t>
-  </si>
-  <si>
-    <t>导出常规版本信息列表</t>
-  </si>
-  <si>
-    <t>导出紧急版本信息列表</t>
-  </si>
-  <si>
-    <t>验收中的版本情况</t>
-  </si>
-  <si>
-    <t>查看部门验收中的所有常规版本信息列表</t>
-  </si>
-  <si>
-    <t>跳转到版本具体信息页面进行编辑</t>
-  </si>
-  <si>
-    <t>测试经理、测试人员</t>
-  </si>
-  <si>
-    <t>局方人员</t>
-  </si>
-  <si>
-    <t>导出列表</t>
-  </si>
-  <si>
-    <t>删除版本具体信息</t>
-  </si>
-  <si>
-    <t>测试经理</t>
-  </si>
-  <si>
-    <t>月报质量数据</t>
-  </si>
-  <si>
-    <t>查看当前月报统计范围内的所有版本信息列表</t>
-  </si>
-  <si>
-    <t>生成月报</t>
-  </si>
-  <si>
     <t>正在进行部门整体数据接口的联调，小组数据接口待开发</t>
   </si>
   <si>
@@ -152,6 +149,36 @@
   </si>
   <si>
     <t>跳转到测试任务的具体信息页面进行编辑</t>
+  </si>
+  <si>
+    <t>数据管理</t>
+  </si>
+  <si>
+    <t>查看组别列表</t>
+  </si>
+  <si>
+    <t>新增/删除组别</t>
+  </si>
+  <si>
+    <t>查看项目负责人列表</t>
+  </si>
+  <si>
+    <t>新增/删除项目负责人</t>
+  </si>
+  <si>
+    <t>查看测试人员列表</t>
+  </si>
+  <si>
+    <t>新增/删除测试人员</t>
+  </si>
+  <si>
+    <t>查看账号列表</t>
+  </si>
+  <si>
+    <t>新增/删除账号</t>
+  </si>
+  <si>
+    <t>模糊查询</t>
   </si>
   <si>
     <t>数据录入</t>
@@ -247,8 +274,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -289,9 +316,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,17 +362,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,24 +383,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,22 +405,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,32 +437,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,7 +454,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,192 +475,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="34">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -823,10 +850,10 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -836,7 +863,7 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
@@ -844,13 +871,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -864,6 +891,30 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -912,7 +963,7 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -922,19 +973,80 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -995,17 +1107,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,6 +1135,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1030,6 +1160,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,50 +1190,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,10 +1212,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1112,137 +1224,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1303,55 +1415,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1366,22 +1517,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1396,7 +1547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
@@ -1756,10 +1907,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1916,20 +2067,16 @@
       <c r="D9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="21">
-        <v>44347</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="E9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="9"/>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>9</v>
@@ -1989,14 +2136,14 @@
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>10</v>
@@ -2008,10 +2155,10 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="9"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>10</v>
@@ -2023,10 +2170,10 @@
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="9"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>10</v>
@@ -2038,10 +2185,10 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="9"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>10</v>
@@ -2053,10 +2200,10 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="9"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>10</v>
@@ -2068,10 +2215,10 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" ht="14.25" spans="1:7">
-      <c r="A19" s="9"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>10</v>
@@ -2083,12 +2230,12 @@
       <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="9"/>
-      <c r="B20" s="22" t="s">
-        <v>29</v>
+      <c r="A20" s="22"/>
+      <c r="B20" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>10</v>
@@ -2100,10 +2247,10 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="9"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>10</v>
@@ -2115,13 +2262,13 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="9"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>11</v>
@@ -2130,13 +2277,13 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="9"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>11</v>
@@ -2145,57 +2292,57 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="9"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:7">
+      <c r="A25" s="22"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="27"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:7">
-      <c r="A25" s="9"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>18</v>
+      <c r="E25" s="27" t="s">
+        <v>11</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="9"/>
-      <c r="B26" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="33"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="9"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>10</v>
@@ -2207,10 +2354,10 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="9"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>10</v>
@@ -2222,10 +2369,10 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="9"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="10"/>
       <c r="C29" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>10</v>
@@ -2237,34 +2384,34 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" ht="27.75" spans="1:7">
-      <c r="A30" s="9"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="20">
+        <v>44362</v>
+      </c>
+      <c r="G30" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="21">
-        <v>44362</v>
-      </c>
-      <c r="G30" s="34" t="s">
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="22"/>
+      <c r="B31" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="9"/>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="D31" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>11</v>
@@ -2273,13 +2420,13 @@
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="9"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="10"/>
       <c r="C32" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>11</v>
@@ -2288,341 +2435,478 @@
       <c r="G32" s="14"/>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="9"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16" t="s">
+      <c r="A33" s="22"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="26"/>
+      <c r="G33" s="28"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="22"/>
+      <c r="B34" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="9" t="s">
+      <c r="C34" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="D34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="40"/>
+      <c r="G34" s="41"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="22"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D35" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="22"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11" t="s">
+      <c r="D36" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="44"/>
+      <c r="G36" s="45"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="22"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11" t="s">
+      <c r="D37" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="44"/>
+      <c r="G37" s="45"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="22"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="9"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="16" t="s">
+      <c r="D38" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="44"/>
+      <c r="G38" s="45"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="22"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="19"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="9"/>
-      <c r="B38" s="4" t="s">
+      <c r="D39" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="44"/>
+      <c r="G39" s="45"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="22"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D40" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="22"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11" t="s">
+      <c r="D41" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
+    </row>
+    <row r="42" ht="14.25" spans="1:7">
+      <c r="A42" s="22"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="35"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="24" t="s">
+      <c r="D42" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="47"/>
+      <c r="G42" s="48"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" ht="14.25" spans="1:7">
-      <c r="A41" s="9" t="s">
+      <c r="B43" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C43" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="37" t="s">
+      <c r="D43" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="32"/>
+      <c r="G43" s="34"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="38">
-        <v>44408</v>
-      </c>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" ht="14.25" spans="1:7">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11" t="s">
+      <c r="D44" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="F42" s="38">
-        <v>44408</v>
-      </c>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11" t="s">
+      <c r="D45" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="9"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="38">
-        <v>44408</v>
-      </c>
-      <c r="G43" s="14"/>
-    </row>
-    <row r="44" ht="14.25" spans="1:7">
-      <c r="A44" s="9"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="F44" s="21">
-        <v>44377</v>
-      </c>
-      <c r="G44" s="19"/>
-    </row>
-    <row r="45" ht="14.25" spans="1:7">
-      <c r="A45" s="9"/>
-      <c r="B45" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="38">
-        <v>44408</v>
-      </c>
-      <c r="G45" s="33"/>
-    </row>
-    <row r="46" ht="14.25" spans="1:7">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="38">
-        <v>44408</v>
-      </c>
-      <c r="G46" s="14"/>
+      <c r="D46" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="19"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="11" t="s">
+      <c r="B47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" ht="14.25" spans="1:7">
+      <c r="A49" s="49"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" s="38">
+      <c r="D49" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="26"/>
+      <c r="G49" s="28"/>
+    </row>
+    <row r="50" ht="14.25" spans="1:7">
+      <c r="A50" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="51">
         <v>44408</v>
       </c>
-      <c r="G47" s="14"/>
-    </row>
-    <row r="48" ht="14.25" spans="1:7">
-      <c r="A48" s="9"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="F48" s="21">
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" ht="14.25" spans="1:7">
+      <c r="A51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="51">
+        <v>44408</v>
+      </c>
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="51">
+        <v>44408</v>
+      </c>
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" ht="14.25" spans="1:7">
+      <c r="A53" s="9"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="20">
         <v>44377</v>
       </c>
-      <c r="G48" s="19"/>
-    </row>
-    <row r="49" ht="14.25" spans="1:7">
-      <c r="A49" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="42" t="s">
+      <c r="G53" s="19"/>
+    </row>
+    <row r="54" ht="14.25" spans="1:7">
+      <c r="A54" s="9"/>
+      <c r="B54" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="F54" s="51">
+        <v>44408</v>
+      </c>
+      <c r="G54" s="34"/>
+    </row>
+    <row r="55" ht="14.25" spans="1:7">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="F49" s="38">
+      <c r="F55" s="51">
         <v>44408</v>
       </c>
-      <c r="G49" s="46"/>
-    </row>
-    <row r="50" ht="14.25" spans="1:7">
-      <c r="A50" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="F50" s="38">
+      <c r="G55" s="14"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="51">
+        <v>44408</v>
+      </c>
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" ht="14.25" spans="1:7">
+      <c r="A57" s="9"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" s="20">
+        <v>44377</v>
+      </c>
+      <c r="G57" s="19"/>
+    </row>
+    <row r="58" ht="14.25" spans="1:7">
+      <c r="A58" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" s="51">
+        <v>44408</v>
+      </c>
+      <c r="G58" s="59"/>
+    </row>
+    <row r="59" ht="14.25" spans="1:7">
+      <c r="A59" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" s="51">
         <v>44362</v>
       </c>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" ht="14.25" spans="1:7">
-      <c r="A51" s="51"/>
-      <c r="B51" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="F51" s="38">
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" ht="14.25" spans="1:7">
+      <c r="A60" s="64"/>
+      <c r="B60" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" s="51">
         <v>44362</v>
       </c>
-      <c r="G51" s="19"/>
+      <c r="G60" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A14:A42"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="A59:A60"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
@@ -2630,10 +2914,11 @@
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="B26:B30"/>
     <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
